--- a/P0089/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0089/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0089/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{724AD9B6-0470-4641-95F4-83BB3A436956}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="108">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -90,13 +90,325 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0089</t>
+  </si>
+  <si>
+    <t>PR0001</t>
+  </si>
+  <si>
+    <t>Diagnostico Sentencia 038 río Cauca - aspectos sociales</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Diagnostico Sentencia 038 río Cauca - aspectos sociales.docx</t>
+  </si>
+  <si>
+    <t>Ministerio de Ambiente y Desarrollo Sostenible</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>El documento presenta un diagnóstico socioambiental detallado de la cuenca del Río Cauca, considerando la relevancia de este ecosistema como sujeto de derechos según la Sentencia 038 de 2019. El objetivo principal del documento es caracterizar y analizar el estado actual de los recursos hídricos y las condiciones socioculturales de la población que habita en la cuenca, con miras a diseñar estrategias efectivas para la gobernanza del agua y el cumplimiento de la mencionada sentencia.
+Los temas tratados en el estudio abarcan múltiples áreas relacionadas con la cuenca del río Cauca y sus afluentes. Se incluyen secciones sobre indicadores de pobreza, composición étnica, antecedentes del conflicto armado, salud, educación y la participación de las actividades económicas en el Producto Interno Bruto (PIB) nacional. Específicamente, el análisis se centra en varios municipios y departamentos que conforman la cuenca, destacando las características socioeconómicas y ambientales que afectan a las comunidades locales. Algunos de los municipios relevantes del estudio son aquellos pertenecientes a los departamentos de Antioquia, Valle del Cauca, Risaralda y Caldas, zonas que han sido históricamente afectadas por el conflicto armado y la explotación de recursos naturales.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>Pdf</t>
+  </si>
+  <si>
+    <t>El diagnóstico socioambiental del Río Cauca y su cuenca destaca la importancia de este ecosistema, que concentra aproximadamente el 30% de la población total del país y alberga actividades económicas significativas como la agroindustria azucarera y cafetera, la minería y la pesca. A través de la recopilación de datos secundarios y consultas con entidades relevantes, se logró caracterizar tanto el estado de los recursos hídricos en términos de oferta, demanda, calidad y riesgo, como las condiciones sociales de la población que habita la región.
+Entre los resultados clave se identifica que los principales indicadores de pobreza son altos, lo que contribuye a problemas de salud y educación. La cuenca también ha sufrido el impacto del conflicto armado, lo que ha afectado la integración social y el desarrollo económico. Los ecosistemas están bajo presión por actividades como la minería, que a menudo carecen de formalización adecuada, lo que pone en riesgo tanto la salud del río como el bienestar de las comunidades.
+Con respecto a las conclusiones, se refleja la necesidad urgente de implementar estrategias de gobernanza del agua que reconozcan y respeten los derechos del río, conforme a la Sentencia 038 de 2019. Esto implica la construcción participativa de un plan de acción que contemple compromisos y colaboración entre actores locales, regionales y nacionales. Se recomienda fortalecer la formalización de actividades económicas como la minería, promover la educación y crear espacios de participación comunitaria para abordar las desigualdades sociales presentes en la región.</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Organizaciones.docx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Mesas_de_Dialogo_Paro_Minero_Bajo_Cauca/Mesa Educación El Bagre.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Mesas_de_Dialogo_Paro_Minero_Bajo_Cauca/Sistematizacion Mesas Agropecuario y Pesquero Bajo Cauca.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Mesas_de_Dialogo_Paro_Minero_Bajo_Cauca/Sistematizacion Mesas Distrito Minero y Productivo Bajo Cauca.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Mesas_de_Dialogo_Paro_Minero_Bajo_Cauca/Sistematizacion Mesas Enfoque Diferencial y DDHH Bajo Cauca.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Mesas_de_Dialogo_Paro_Minero_Bajo_Cauca/Sistematizacion Mesas Socioambiental y Restauracion Ecologica Bajo Cauca.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Organizaciones_Sociales_que_Representan_los_Guardianes/Oficio guardian del gobierno.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Sesiones_Guardianes_del_Rio_Cauca_2022/Sesion_Extraordinaria_de_Guardianes_Rio_Cauca.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Sesiones_Guardianes_del_Rio_Cauca_2022/Sesion_Novena_de_Guardianes_Rio_Cauca.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Sesiones_Guardianes_del_Rio_Cauca_2022/Sesion_Octava_de_Guardianes_Rio_Cauca.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Sesiones_Guardianes_del_Rio_Cauca_2022/Sesion_Septima_de_Guardianes_Rio_Cauca.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Sesiones_Guardianes_del_Rio_Cauca_2022/Sesion_Sexta_de_Guardianes_Rio_Cauca.pdf</t>
+  </si>
+  <si>
+    <t>La información contenida en el documento no es exclusiva de la región de La Mojana porque abarca toda la cuenca del Río Cauca</t>
+  </si>
+  <si>
+    <t>Río Cauca, cuenca hídrica, diagnóstico socioambiental, pobreza, conflicto armado, gobernanza, derechos del río, minería, salud, educación, sostenibilidad, ecosistemas, actividades económicas, biodiversidad, participación comunitaria</t>
+  </si>
+  <si>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>Sistematizacion Mesas Agropecuario y Pesquero Bajo Cauca</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Mesas_de_Dialogo_Paro_Minero_Bajo_Cauca/Sistematizacion Mesas Agropecuario y Pesquero Bajo Cauca.pdf</t>
+  </si>
+  <si>
+    <t>El documento "Sistematización Mesas Agropecuario y Pesquero Bajo Cauca" presenta un compendio de propuestas estratégicas orientadas a mejorar las condiciones de desarrollo agropecuario y pesquero en la región del Bajo Cauca, Colombia. En este contexto, se abordan iniciativas diseñadas a fomentar la sostenibilidad, la formalización de tierras, la industrialización de producciones locales y el fortalecimiento de la asociatividad entre los diferentes actores del sector rural.
+Los temas tratados en el informe abarcan diversas áreas clave, tales como la agricultura, la pesca, la infraestructura vial, y la formalización de tierras en municipios como Tarazá, Cáceres, Nechí, y Caucasia. Cada municipio presenta un conjunto específico de propuestas que responden a las necesidades y características particulares de su contexto local. Las iniciativas van desde la adecuada formulación de proyectos para la mejora de vías terciarias, pasando por el fortalecimiento de cadenas de frío para la comercialización de productos, hasta la industrialización de la producción de pescado y productos agropecuarios, lo que sugiere un enfoque integral hacia la producción y el comercio.
+El objetivo principal del documento es ofrecer un marco de referencia que facilite la implementación de las propuestas consensuadas en las mesas de desarrollo agropecuario y pesquero del Bajo Cauca. Este objetivo se fundamente en la necesidad de promover la soberanía alimentaria, el acceso a créditos blandos, y el desarrollo de tecnologías productivas que permitan a los beneficiarios optimizar sus recursos y capacidades productivas.
+En términos metodológicos, el documento se basa en la sistematización de información obtenida a través de encuentros y talleres con diferentes actores involucrados en el desarrollo rural, incluidas asociaciones de productores, comunidades, y entidades gubernamentales.</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El documento "Sistematización Mesas Agropecuario y Pesquero Bajo Cauca" aborda la informalidad en el sector minero principalmente a través de propuestas que intentan regularizar la tenencia de tierras y establecer marcos legales para la actividad minera, promoviendo así la formalización de operaciones y garantizando la sostenibilidad ambiental. Se enfatiza la necesidad de resolver las afectaciones que la minería informal genera sobre los cultivos y tierras, sugiriendo un mayor control y supervisión de las actividades extractivas para proteger los recursos y el bienestar de las comunidades afectadas.
+Entre los resultados clave del documento, se observa una identificación clara de las problemáticas que enfrenta el sector agropecuario y pesquero en la región del Bajo Cauca. Se refiere a la escasez de recursos formales para el acceso a tierras, la falta de infraestructura adecuada y el limitado acceso a créditos que frena la producción. Asimismo, se destaca la necesidad de promover proyectos productivos que incluyan un acompañamiento técnico adecuado, lo que señala una clara relación entre la formalización de los proyectos y el desarrollo económico sostenible.
+Las conclusiones del estudio ponen de manifiesto la interconexión entre la agricultura, la pesca y la minería en la región, resaltando cómo la actividad minera informal afecta negativamente las dinámicas productivas locales.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>El único municipo de La Mojana del que se habla en el informe es Nechí. Sin embargo, muestra la relación directa que hay entre los efectos de la minería y la agroindustria, un tema fundamental en la región de La Mojana.</t>
+  </si>
+  <si>
+    <t>Bajo Cauca, propuesta, sostenibilidad, agricultura, pesca, minería, formalización, acceso a tierras, créditos, infraestructura, desarrollo rural, recursos naturales, diálogo intersectorial, capacitación, medio ambiente.</t>
+  </si>
+  <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>Sistematizacion Mesas Distrito Minero y Productivo Bajo Cauca</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Mesas_de_Dialogo_Paro_Minero_Bajo_Cauca/Sistematizacion Mesas Distrito Minero y Productivo Bajo Cauca.pdf</t>
+  </si>
+  <si>
+    <t>El documento "Sistematización Mesas Distrito Minero y Productivo Bajo Cauca" es una sistemiatización de talleres realizados con comunidades mineras y cercanas a la minería en el Bajo Cauca. Este trabajo se enfoca en la interacción entre las actividades mineras y el desarrollo social y ambiental de los municipios que constituyen el distrito minero, tales como Tarazá, Nechí, y Caucasia, además de abordar las problemáticas observadas en áreas adyacentes. El objetivo principal del documento es proporcionar un marco de referencia que permita la evaluación de las dinámicas mineras en la región, con el fin de promover la formalización de la minería, la sostenibilidad ambiental y el desarrollo económico de las comunidades locales. En cuanto a la metodología utilizada, el estudio se basa en la sistematización de las mesas de diálogo realizadas con las comunidades mineras, donde se registraron sus inquietudes y propuestas. Esta sistematización incluyó la observación directa y la recogida de testimonios de líderes comunitarios y mineros, lo que proporciona un enfoque participativo y centrado en los habitantes del territorio. El documento concluye con una serie de recomendaciones para mejorar la integración de la minería dentro de los planes de desarrollo territorial, promover la recuperación ambiental, y establecer alianzas estratégicas entre los mineros y las entidades gubernamentales.</t>
+  </si>
+  <si>
+    <t>El documento presenta un análisis exhaustivo de las mesas de trabajo llevadas a cabo en el distrito minero y productivo de Bajo Cauca, evidenciando las principales dificultades enfrentadas por los mineros, particularmente en los aspectos ambientales, sociales y de formalización. Se identificó una grave deficiencia en la capacitación de pequeños mineros sobre la presentación de evaluaciones ambientales, lo que dificulta la implementación de planes de manejo ambiental adecuados. Una solución propuesta consiste en la generación de espacios de capacitación y acompañamiento institucional para estas comunidades.
+Además, se destaca la carencia de empresas que ofrezcan beneficios directos a la comunidad. Se sugiere la construcción de estas empresas con apoyo estatal que acompañen a las unidades mineras. En cuanto a la formalización, el documento subraya la inconsistencia y la falta de sesiones de capacitación adecuadas, lo que provoca que los mineros operen en la informalidad. Las recomendaciones incluyen un enfoque en la creación de un plan social centrado en el minero tradicional y la caracterización de este sector.
+El reconocimiento de la actividad económica minera en todos los planes de ordenamiento territorial es otro aspecto clave. Se hace un llamado a integrar esta actividad con medidas de gestión que faciliten la formalización. Asimismo, se recomienda implementar proyectos responsables que incluyan reforestación masiva en zonas afectadas para mitigar los daños ambientales y apoyar actividades comunitarias. En términos de financiamiento, se sugieren reformas en el uso del fondo de regalías para asegurar que los municipios mineros tengan acceso a recursos para proyectos sociales y de fomento minero.</t>
+  </si>
+  <si>
+    <t>El único municipo de La Mojana del que se habla en el informe es Nechí. Sin embargo, tener presentes estos desafíos es fundamental para tener una comprensión completa de la región por la gran influencia del río Cauca en La Mojana. Específicamente sobre los temas relacionados con minería.</t>
+  </si>
+  <si>
+    <t>Minería, Bajo Cauca, capacitación, formalización, acompañamiento, evaluación ambiental, reforestación, desarrollo sostenible, regalías, ordenamiento territorial, empresas comunitarias, informalidad.</t>
+  </si>
+  <si>
+    <t>PR0004</t>
+  </si>
+  <si>
+    <t>Sistematizacion Mesas Enfoque Diferencial y DDHH Bajo Cauca</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Mesas_de_Dialogo_Paro_Minero_Bajo_Cauca/Sistematizacion Mesas Enfoque Diferencial y DDHH Bajo Cauca.pdf</t>
+  </si>
+  <si>
+    <t>El documento titulado "Sistematización Mesas Enfoque Diferencial y DDHH Bajo Cauca" presenta un conjunto de propuestas y observaciones derivadas de mesas de trabajo enfocadas en la promoción de derechos humanos y el desarrollo con enfoque diferencial en varios municipios del Bajo Cauca, específicamente Tarazá, Cáceres y Zaragoza. Su objetivo principal es compilar y sistematizar las demandas y necesidades de las comunidades en materia de derechos humanos, acceso a servicios básicos, y mejora de la infraestructura social, con énfasis en la perspectiva étnica, de género y en la atención a poblaciones vulnerables.
+Las temáticas abordadas en el documento incluyen el ordenamiento territorial, la educación, la cultura, la seguridad alimentaria, el empleo, la atención a la población LGBTIQ+, la formalización de tierras, y el fortalecimiento de las organizaciones de mujeres. Se destacan propuestas específicas como el avance en la dotación de espacios culturales, la creación de centros educativos y la implementación de estrategias de acompañamiento a mujeres en la cadena productiva. Todo esto busca fomentar un entorno que reconozca y procure los derechos de diversas poblaciones, incluidos los jóvenes, mujeres, y colectivos étnicos. En términos metodológicos, el documento parece estar basado en el enfoque participativo, puesto que las mesas de trabajo se conforman con la inclusión de diferentes actores comunitarios, líderes sociales y representantes de organizaciones locales.</t>
+  </si>
+  <si>
+    <t>Se identificaron varias áreas críticas que requieren atención inmediata, siendo la educación uno de los aspectos más significativos. La falta de acceso a educación superior y la necesidad de crear centros educativos que faciliten la continuidad de los jóvenes en sus estudios son problemas destacados. Se sugiere también la implementación de alianzas estratégicas para integrar la oferta educativa a las comunidades.
+Asimismo, se evidencia una escasa dotación de espacios y recursos culturales, con un reconocimiento de la necesidad de fortalecer estos lugares para niños, niñas y adolescentes. La dotación de materiales y el desarrollo de programas de ocio son fundamentales para promover su desarrollo integral. En cuanto a la salud, la precariedad del servicio en áreas rurales es alarmante; por lo tanto, se pide una mejora en la atención médica mediante la inclusión de profesionales especializados y la optimización de subsidios que garanticen el acceso a servicios de salud para la población vulnerable.
+En el ámbito económico, se requieren estrategias efectivas para generar empleo juvenil, evitando que se vinculen a actividades delictivas o cultivos ilícitos. La formalización de grupos vulnerables y el fortalecimiento de las organizaciones de mujeres en la cadena productiva son prioridades señaladas en el documento. Asimismo, la urgente necesidad de diseñar estrategias que aseguren la seguridad alimentaria de las comunidades afectadas por paros y conflictos es una de las recomendaciones clave, garantizando la provisión de ayudas alimentarias de manera inmediata.
+Las conclusiones enfatizan un enfoque integral que aborde los aspectos sociales, económicos y derechos humanos, haciendo especial hincapié en la participación activa de las comunidades en la formulación e implementación de políticas públicas.</t>
+  </si>
+  <si>
+    <t>La información es levantada en municipos del Bajo Cauca, no de la Mojana particularmente. Sin embargo contiene información metodológica y de resultados muy relevante sobre variables relacionadas con género, mujeres niñez, población LGBTIQ, servicios de salud y educación.</t>
+  </si>
+  <si>
+    <t>Derechos humanos, Bajo Cauca, Tarazá, Cáceres, Zaragoza, educación, cultura, salud, empleo, seguridad alimentaria, enfoque diferencial, población vulnerable, mujeres, jóvenes, formalización de tierras.</t>
+  </si>
+  <si>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>Sistematizacion Mesas Socioambiental y Restauracion Ecologica Bajo Cauca</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 3 . Desarrollo Sentencia río Cauca/Mesas_de_Dialogo_Paro_Minero_Bajo_Cauca/Sistematizacion Mesas Socioambiental y Restauracion Ecologica Bajo Cauca.pdf</t>
+  </si>
+  <si>
+    <t>"Sistematización Mesas Socioambiental y Restauración Ecológica Bajo Cauca" presenta una sistematización de los problemas socioambientales y los desafíos de restauración ecológica en la región del Bajo Cauca, específicamente en los municipios de Tarazá, Cáceres, Nechí y Caucasia. El objetivo principal de este informe es documentar las propuestas y acciones planteadas por diversas mesas de trabajo que buscan abordar las problemáticas ambientales, económicas y sociales que afectan a estas comunidades.
+Entre los temas tratados, el documento destaca aspectos relacionados con la dinámica fluvial del río Tarazá, la contaminación por actividades mineras, la degradación de suelos y la falta de inversión en proyectos sociales y ambientales. Se observan problemas significativos como la sedimentación y la contaminación del río, que limitan su uso turístico y afectan la salud ambiental del ecosistema local. Además, se discuten las altas tasas de contaminación de acuíferos y suelos debido al uso excesivo de químicos en actividades agrícolas y prácticas mineras, lo que genera efectos adversos en la calidad de vida de las comunidades.
+Las metodologías empleadas en el desarrollo del estudio incluyen la recolección de datos cualitativos a través de talleres participativos con las comunidades, donde se sistematizan las inquietudes y propuestas de los habitantes locales. Esto se complementa con estudios de radiación ambiental y evaluaciones sobre la calidad del agua y su impacto en la salud pública. El informe también hace uso de análisis descriptivos para entender mejor la situación socioeconómica y ambiental de cada municipio, permitiendo la formulación de estrategias específicas de intervención.</t>
+  </si>
+  <si>
+    <t>Los resultados clave muestran una clara identificación de retos significativos tales como la contaminación del agua y los suelos, la degradación de áreas naturales, y la falta de inversión en programas sociales y de restauración ecológica.
+Uno de los hallazgos más preocupantes es la alta contaminación de los cuerpos de agua debido a actividades mineras, que afecta no solo la salud ambiental, sino también las actividades económicas locales, como el turismo. Se concluye que hay una necesidad urgente de implementar medidas de control y vigilancia sobre las actividades mineras y una mejor gestión de residuos. Las comunidades han propuesto la creación de proyectos agroforestales y alternativas económicas sostenibles, destacando la apicultura y el ecoturismo como vías para mejorar la calidad de vida y conservar el medio ambiente.
+El documento también resalta la importancia de la educación y la capacitación de las comunidades en la adopción de prácticas agrícolas sostenibles y en la gestión ambiental. Las mesas de trabajo abogan por un enfoque colaborativo entre las instituciones locales y los habitantes para fomentar la participación activa en la toma de decisiones y en la ejecución de proyectos de restauración ecológica.
+Las conclusiones enfatizan la necesidad de una planificación territorial que priorice la sostenibilidad ambiental, así como el ordenamiento ambiental que separa áreas protegidas de zonas de explotación minera. Se recomienda fortalecer la infraestructura para el manejo de recursos hídricos y promover el desarrollo de programas que integren aspectos económicos, sociales y ambientales.</t>
+  </si>
+  <si>
+    <t>El único municipo de La Mojana del que se habla en el informe es Nechí. Sin embargo, tener presentes estos desafíos es fundamental para tener una comprensión completa de la región por la gran influencia del río Cauca en La Mojana</t>
+  </si>
+  <si>
+    <t>Bajo Cauca, restauración ecológica, mesas socioambientales, contaminación, minería, apicultura, ecoturismo, calidad del agua, reforestación, sostenibilidad, capacitación, educación ambiental, infraestructura, desarrollo sostenible, comunidades locales.</t>
+  </si>
+  <si>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>Arbol de Objetivos VF 17 mayo de 2023</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 7. Árboles problema y objetivos/Arbol de Objetivos VF 17 mayo de 2023.docx</t>
+  </si>
+  <si>
+    <t>Mojana Clima y Vida</t>
+  </si>
+  <si>
+    <t>El documento es un árbol de objetivos, que expone una serie de estrategias orientadas a la gestión integral del agua en la región de La Mojana. Abarca elementos esenciales para el ordenamiento territorial sostenible y la resiliencia climática en Antioquia, Bolívar, Córdoba y Sucre. Las áreas y zonas de interés incluyen las cuencas hídricas que atraviesan estos departamentos, donde se enfatiza la necesidad de rehabilitar la función de regulación y conectividad hidrológica de los sistemas lóticos. Se hace especial énfasis en el caño Ventanillas, donde se observa una acumulación significativa de sedimentos que afecta la calidad del agua y la biodiversidad local.
+El documento también subraya la necesidad de actualizar el diagnóstico sobre la distribución espacial de metales pesados, lo que resulta vital para entender los riesgos ambientales y de salud pública asociados. En esta línea, se proponen estudios de ingeniería de detalle para mapear y abordar estos problemas, lo que permite identificar puntos críticos y priorizar acciones de intervención.</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>La estructura del árbol no contiene una introducción, desarrollo y conclusión; sino que, de manera gráfica, se muestran los objetivos y las acciones que se desprenden de cada uno. Algunos de estos son mejorar la implementación de acciones de gobernanza; articular actores e iniciativas privadas, públicas y comunitarias, reducir la afectación a la biodiversidad; entre otras. Estas herramientas ayudarán a optimizar la toma de decisiones en cuanto a inversiones relacionadas con la gestión del agua y el uso sostenible de recursos naturales, asegurando transparencia y responsabilidad en la ejecución de los proyectos.</t>
+  </si>
+  <si>
+    <t>El árbol de objetivos hace parte, usualmente, de la estructura del marco lógico. En este caso, se usa para identificar los objetivos específicos del objetivo principal del proyecto y las acciones encaminadas a cumplirlos.</t>
+  </si>
+  <si>
+    <t>Árbol de objetivos, gestión del agua, La Mojana, resiliencia climática, ordenamiento territorial, restauración de ecosistemas, gobernanza, contaminación hídrica, metales pesados, sedimentación, soluciones basadas en naturaleza, seguridad hídrica, vulnerabilidad.</t>
+  </si>
+  <si>
+    <t>PR0007</t>
+  </si>
+  <si>
+    <t>Arbol de Problemas Mojana VF 17 mayo 2023</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 7. Árboles problema y objetivos/Arbol de Problemas Mojana VF 17 mayo 2023.docx</t>
+  </si>
+  <si>
+    <t>El documento es un árbol de problemas, que busca identificar las limitaciones o deficiencias en una situación específica, que en este caso es: Insuficientes acciones para la gestión integral del agua como base del ordenamiento territorial sostenible y la resiliencia climática en La Mojana: Antioquia, Bolívar, Córdoba y Sucre. Se destacan las diversas problemáticas que afectan a La Mojana, tales como el incremento de la fragmentación del sistema hídrico, el aumento de la contaminación de las aguas, la afectación de la biodiversidad y la vulnerabilidad social de sus comunidades. Estos fenómenos están vinculados a la inadecuada toma de decisiones en gestión hídrica, el uso no controlado del suelo y el desarrollo de actividades económicas inadecuadas. Además, se menciona la debilidad del sector comunitario y la escasez de programas de capacitación en restauración, que exacerban el riesgo de conflictos sociales y ambientales.</t>
+  </si>
+  <si>
+    <t>La estructura del árbol no contiene una introducción, desarrollo y conclusión. Sin embargo, presenta información relevante sobre la alta vulnerabilidad de la comunidad ante el deterioro de los ecosistemas, la marcada disminución de la biodiversidad y los altos índices de contaminación en el recurso hídrico. Se observó que la fragmentación del sistema hídrico es una preocupación crítica que afecta tanto a la salud pública como a la capacidad de resiliencia del ecosistema. También se destaca la importancia de fomentar la participación activa de las comunidades en iniciativas de restauración y conservación, así como la creación de redes interinstitucionales que faciliten el intercambio de información y recursos. De igual manera, se sugiere la implementación de programas educativos que fortalezcan las capacidades de los actores locales y se insta a realizar estudios más detallados sobre la contaminación y la salud de los ecosistemas para guiar la toma de decisiones informadas.</t>
+  </si>
+  <si>
+    <t>El árbol de problemas hace parte, usualmente, de la estructura del marco lógico. En este caso, se usa para identificar los problemas específicos que impedirían alcanzar el objetivo principal del proyecto.</t>
+  </si>
+  <si>
+    <t>La Mojana, restauración, gestión del agua, biodiversidad, participación comunitaria, gobernanza, capacitación, contaminación, resiliencia, ecosistemas, monitoreo, evaluación, desarrollo sostenible, fragmentación hídrica.</t>
+  </si>
+  <si>
+    <t>PR0008</t>
+  </si>
+  <si>
+    <t>Informe_Primer_Taller_de_la_RED_Mojana_17-18_de_noviembre_2022</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 4. Encuentro red de restauración/Informe_Primer_Taller_de_la_RED_Mojana_17-18_de_noviembre_2022.pdf</t>
+  </si>
+  <si>
+    <t>PNUD</t>
+  </si>
+  <si>
+    <t>El documento titulado “Primer encuentro Red de Restauración de La Mojana San Marcos, Sucre 17-18 de noviembre del 2022” contiene la bitácora del primer Taller de la Red de Restauración de La Mojana realizado en San Marcos, Sucre. Dicho taller conto con la participación de veinte (20) organizaciones de base enfocadas en la restauración ecológica, y tuvo como objetivo fomentar el dialogo y la colaboración entre las organizaciones Este informe fue realizado en el marco del proyecto “Mojana Clima y Vida: Aprendiendo a Adaptarnos al Cambio Climático”.</t>
+  </si>
+  <si>
+    <t>Este evento, organizado con el apoyo del PNUD, tuvo como objetivo fomentar el diálogo y la colaboración entre las organizaciones, permitiendo que los participantes exploraran sus identidades compartidas y las expectativas sobre el trabajo en red. La metodología incluyó actividades interactivas y ejercicios grupales, tales como la construcción de una telaraña, que permitió a cada participante presentar su nombre, organización y expectativas, facilitando la interacción y conexión entre los asistentes. Entre los resultados clave del documento se destaca que la construcción de la telaraña no solo ayudó a romper el hielo, sino que también promovió el reconocimiento de las experiencias y orígenes diversos de los participantes. Esto permitió que los asistentes expresaran la importancia de aprender de las experiencias de otros y de buscar formas de consolidar sus esfuerzos en términos de restauración ecológica. Se llevó a cabo un ejercicio denominado "Radio Mojana", donde los participantes, organizados en grupos, tuvieron la tarea de crear un programa informativo. Esta actividad concluyó con el reconocimiento de la claridad de los objetivos y acciones de cada organización, así como la identificación de actores clave en el territorio. La creación del informativo facilitó que los participantes entendieran las experiencias y prácticas de restauración de otros en la región y cómo estas podrían multiplicarse en sus comunidades. En el segundo día, los participantes se centraron en identificar las fortalezas y debilidades de sus organizaciones, así como en establecer un futuro deseado en conjunto. Se utilizó un enfoque colaborativo que promovió la cocreación de un espacio de diálogo, donde se presentaron las fortalezas provenientes de la unión de las organizaciones, tales como el compromiso, la experiencia en producción agrícola y el liderazgo femenino. Sin embargo, también se evidenciaron barreras significativas, que incluyen la falta de recursos económicos y propiedades, escasos medios de transporte y la necesidad de mejorar capacidades de gestión y formación en tecnologías de la información y comunicación (TIC). Las discusiones culminaron en un consenso sobre la elaboración de un cronograma de trabajo y una reflexión crítica acerca de la necesidad de una estructura jurídica para la red, aunque las preocupaciones sobre su conformación aún estaban presentes. Los participantes manifestaron la importancia de definir acciones concretas a realizar en el futuro, junto con la calendarización, las metas asociadas y la identificación de quién llevaría a cabo cada tarea. Entre las recomendaciones formuladas, se sugiere potenciar la formación en TIC, mejorar la articulación entre organizaciones y fomentar el aprendizaje colectivo a través de la integración de experiencias previas. También se aconseja establecer mecanismos claros de comunicación que faciliten la coordinación de actividades y la difusión de información relevante en cada una de las comunidades representadas. La motivación y el compromiso expresados en el encuentro son puntos de partida para el desarrollo continuo de las iniciativas de restauración en la región, y la formalización de la red puede potenciar estas acciones.</t>
+  </si>
+  <si>
+    <t>El documento presenta un informe valioso que destaca la importancia de la colaboración entre organizaciones y la identificación de fortalezas y debilidades. No obstante, hay áreas que requieren atención, como el desarrollo de un plan de acción y seguimiento más claro, así como la necesidad de profundizar en las secciones que abordan las barreras y estrategias.</t>
+  </si>
+  <si>
+    <t>Red de Restauración de La Mojana, San Marcos, Sucre, restauración ecológica, fortalecimiento organizacional, diálogo, ejercicio participativo, intercambio de experiencias, comunidades locales, recursos naturales, sostenibilidad, evaluación, colaboración, identidad organizacional, acciones comunes, producción sostenible, conocimiento local, formación, compromiso comunitario, bienestar, medio ambiente, gestión de recursos, capacidades organizativas, mujeres en el liderazgo, calidad ambiental.</t>
+  </si>
+  <si>
+    <t>PR0009</t>
+  </si>
+  <si>
+    <t>Informe_Segundo_Taller_de_la_RED_Mojana_14-15_de_febrero_2023</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 4. Encuentro red de restauración/Informe_Segundo_Taller_de_la_RED_Mojana_14-15_de_febrero_2023.pdf</t>
+  </si>
+  <si>
+    <t>El documento titulado “Segundo encuentro Red de Restauración de La Mojana” contiene la bitácora del segundo taller de la Red de Restauración de La Mojana realizado en San Marcos, Sucre del 14 al 15 de febrero del 2023. Dicho taller conto con la participación de cuarenta y cuatro (44) organizaciones de base enfocadas en la restauración ecológica. Durante el evento, se discutieron experiencias, lecciones aprendidas y se plantearon propuestas para optimizar procesos de restauración ecológica. Este informe fue realizado en el marco del proyecto “Mojana Clima y Vida: Aprendiendo a Adaptarnos al Cambio Climático”.</t>
+  </si>
+  <si>
+    <t>El informe del Segundo Encuentro de la Red de Restauración de la región de la Mojana, documenta la participación de 56 personas, representantes de 44 organizaciones de base social, organizaciones no gubernamentales y entidades académicas. El evento se estructuró mediante actividades participativas que promovieron la integración de visiones sobre la conservación y restauración de ecosistemas de humedales. Un enfoque clave fue el uso de tecnologías de información y comunicación (TIC) para identificar objetivos comunes y oportunidades organizativas en el contexto de la resiliencia y adaptación al cambio climático. Un aspecto fundamental discutido fue la importancia de ajustar indicadores de conectividad y complementar los procesos de restauración con dinámicas acuáticas, abarcando elementos como aguas subterráneas y vegetación acuática. Se estableció que el monitoreo de las Unidades Básicas de Restauración (UBR) es esencial para evaluar su efectividad en términos de conectividad ecológica. Históricamente, el éxito de estas UBR se ha sustentado en proyectos previos a la iniciativa Mojana Clima y Vida, así como en la necesidad de medir procesos de restauración a través de un enfoque integral que contemple variables sociales, económicas y ambientales. El encuentro propuso que la restauración ecológica no debe medirse en el corto plazo, sugiriendo una perspectiva que considere las dinámicas de sucesión natural como base técnica para la evaluación continua de los procesos implementados. Además, se hizo hincapié en la importancia de ajustar y enriquecer los indicadores de monitoreo anualmente para reflejar las realidades cambiantes de los ecosistemas intervenidos. Entre las recomendaciones destaca la reintroducción de fauna silvestre y la creación de hábitats artificiales como medidas para mejorar la dispersión de especies, así como aumentar el enfoque en acciones de ordenamiento territorial que integren determinantes ambientales. Los participantes discutieron sobre la importancia de fortalecer la institucionalidad local y promover la participación de los concejos municipales de juventudes en la formulación de estrategias que mejoren la gestión ambiental. Se hizo especial énfasis en la necesidad de construir un entendimiento colectivo sobre la dinámica del río como medida de adaptación al cambio climático, lo que implica procesos de observación científica y social, así como el hecho de que cualquier acción de restauración debe estar acompañada de la recuperación de prácticas agrícolas y ganaderas sostenibles. Se estableció que la Red de Restauración de Humedales en La Mojana tiene como objetivo principal el restablecimiento y conservación de los ecosistemas de humedal, siendo un espacio colaborativo entre diversas entidades y comunidades interesadas en la protección ambiental y la adaptación al cambio climático. En términos de metodologías, el encuentro utilizó ejercicios de sistematización de saberes y expectativas de los participantes, audiovisuales y análisis participativo para crear conciencia y construir memoria colectiva sobre el estado actual de los humedales y las oportunidades de intervención. Finalmente, en la fase de conclusiones, se identificó la necesidad de compromisos locales para replicar las iniciativas discutidas y un interés en coordinar esfuerzos para establecer la Red como un nodo regional dentro de una Red Nacional de Restauración más amplia. Las actas del encuentro también reflejan la voluntad de mantener encuentros periódicos para seguir construyendo sobre los logros alcanzados y enfrentar retos en la restauración y conservación de los ecosistemas de la región. Con ello, se espera no solo mejorar la calidad de vida de las comunidades que dependen de estos humedales, sino también aumentar la visibilidad ante instituciones nacionales e internacionales interesadas en la conservación ambiental.</t>
+  </si>
+  <si>
+    <t>El informe es un esfuerzo significativo que presenta una estructura colaborativa y un enfoque claro hacia la restauración de ecosistemas en la región de la Mojana. Sin embargo, mejorar la profundidad de la información y la claridad en algunas secciones podría fortalecer su impacto y utilidad, junto con una mejor organización visual para facilitar la lectura y el análisis.</t>
+  </si>
+  <si>
+    <t>Red de Restauración de La Mojana, San Marcos, Sucre, humedales, ecología, restauración ecológica, desarrollo sostenible, adaptación al cambio climático, participación comunitaria, organización de base social, monitoreo ambiental, tecnologías de información y comunicación, indicadores de conectividad, reintroducción de fauna, gestión territorial, jóvenes, empoderamiento, capacidades comunitarias, sostenibilidad, conservación del medio ambiente, recuperación de ecosistemas, sesiones participativas, expectativas de la comunidad, toma de decisiones, memoria colectiva, formación de redes, institucionalidad, plan de desarrollo, instrumentos de planificación, metas de restauración, conciencia ambiental, riesgos ambientales, manejo de recursos naturales, proyectos comunitarios, intervención ecológica, fortalecimiento institucional.</t>
+  </si>
+  <si>
+    <t>PR0010</t>
+  </si>
+  <si>
+    <t>Informe_Tercer_Taller_de_la_RED_Mojana_30_de_marzo_2023</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 4. Encuentro red de restauración/Informe_Tercer_Taller_de_la_RED_Mojana_30_de_marzo_2023.pdf</t>
+  </si>
+  <si>
+    <t>El documento titulado “Tercer encuentro Red de Restauración de La Mojana” contiene la bitácora del tercer taller de la Red de Restauración de La Mojana realizado en San Marcos, Sucre el 30 de marzo del 2023. Dicho taller conto con la participación de cuarenta (40) organizaciones de base enfocadas en la restauración ecológica. Durante el evento, se discutió la importancia de realizar futuros encuentros en las comunidades para fortalecer alianzas y visibilizar sus esfuerzos. Este informe fue realizado en el marco del proyecto “Mojana Clima y Vida: Aprendiendo a Adaptarnos al Cambio Climático”.</t>
+  </si>
+  <si>
+    <t>El Tercer Encuentro de la Red de Restauración de La Mojana, reunió a 40 organizaciones de base dedicadas a la restauración ecológica, con el objetivo de fomentar el diálogo y la colaboración en afirmación de su identidad colectiva y expectativas de trabajo conjunto. Durante la primera parte del encuentro, se realizaron presentaciones individuales de los participantes, donde se compartieron experiencias de éxito en la restauración de ecosistemas y la funcionalidad de los centros comunitarios, destacando acciones relevantes como el viverismo, el rescate de semillas y la captación de aguas lluvias. Estos procesos evidencian la importancia de la participación comunitaria y la integración de prácticas sostenibles en la región. En la discusión sobre la ubicación de futuros encuentros, predominó la preferencia por realizarlos en las comunidades en lugar de en el hotel Camer, con el argumento de que esto permitiría un mejor conocimiento de diferentes territorios, el fortalecimiento de alianzas y una mayor visibilidad de las acciones realizadas. Esta decisión está sujeta a que las comunidades tengan acceso seguro para el desplazamiento de las organizaciones. Uno de los puntos centrales del encuentro fue la definición y el propósito de la red. Se reafirmó la idea de que la red representa un conjunto de personas e instituciones unidas con el objetivo de conservar y restaurar los ecosistemas de la Mojana, así como de mejorar la calidad de vida de las comunidades que dependen de estos. Durante la jornada, se abordaron aspectos esenciales como la importancia de evitar la politiquería en las decisiones, la necesidad de un compromiso colectivo claro y la formación de estructuras que permitan la sostenibilidad de las acciones realizadas tras la posible salida del PNUD. Las organizaciones debatieron sobre las decisiones políticas que deben tomarse de manera colectiva, enfatizando que, para la defensa de la naturaleza, es fundamental que la red se mantenga libre de divisiones internas. Además, se insistió en la importancia de contar con un marco organizativo sólido que fiscalice y supervise las actividades de la red. Las conclusiones del encuentro incluyeron la necesidad de sensibilizar a las comunidades sobre la importancia de conservar los ecosistemas y su interdependencia con la soberanía alimentaria. Se propusieron tareas específicas, como definir la importancia de constituirse como red, establecer metas para el año 2023 y desarrollar una imagen que represente a la red. Como parte del proceso, se trabajó en la creación de un logo que visualmente exprese la identidad de la red, con elementos que resalten la conexión con los recursos naturales y la comunidad. La red también planea realizar un evento de lanzamiento el 19 de abril con la presencia del ministerio del ambiente, donde se espera presentar las iniciativas de las organizaciones y su compromiso con la conservación de los humedales. Durante la sesión se utilizó un enfoque participativo, facilitando la recolección de opiniones y definiciones que fueron discutidas en grupo. Se fomentó la reflexión y el diálogo entre los participantes para construir de forma conjunta la identidad y el propósito de la red. Este método permitió un intercambio enriquecedor de experiencias y la creación de un ambiente propicio para la discusión abierta.</t>
+  </si>
+  <si>
+    <t>El documento es un insumo valioso para la toma de decisiones sobre la conservación y restauración de ecosistemas en la Mojana, aunque hay áreas que podrían beneficiarse de mayor profundidad y claridad para maximizar su efectividad y aplicabilidad. Aumentar el nivel de detalle en los aspectos discutidos y proporcionar un marco para evaluar el progreso y el impacto de las acciones sería beneficioso para el propio desarrollo de la red y para la sostenibilidad de sus iniciativas en el futuro.</t>
+  </si>
+  <si>
+    <t>Red de Restauración de La Mojana, San Marcos, Sucre, restauración de ecosistemas, humedales, conservación, comunidades, alianzas, capital social, soberanía alimentaria, seguridad alimentaria, agricultura sostenible, viverismo, rescate de semillas, sistemas de captación de aguas lluvias, participación comunitaria, compromiso territorial, fortalecimiento de organizaciones, cambio climático, gestión de recursos naturales, capacitación, sensibilización ambiental, evento de lanzamiento, intercambio de experiencias, políticas públicas, iniciativas comunitarias, integración institucional, biodiversidad, fomento de prácticas sostenibles, mejora de calidad de vida, desarrollo sostenible.</t>
+  </si>
+  <si>
+    <t>PR0011</t>
+  </si>
+  <si>
+    <t>3. Documento perfil del proyecto V3</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto\3. Documento perfil del proyecto V3.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento corresponde al resumen y descripción del proyecto titulado “Fortalecimiento de acciones para la gestión integral del agua como base del ordenamiento territorial sostenible en La Mojana: Antioquia, Bolívar, Córdoba y Sucre”. El objetivo principal del proyecto es aumentar las acciones para la gestión integral del recurso hídrico y fomentar el ordenamiento territorial sostenible y la resiliencia climática en la región de La Mojana, que abarca los departamentos de Antioquia, Bolívar, Córdoba y Sucre. </t>
+  </si>
+  <si>
+    <t>El documento presenta una serie de resultados y conclusiones significativas centradas en la mejora de la gestión hídrica en la región de La Mojana, que abarca los departamentos de Antioquia, Bolívar, Córdoba y Sucre. Un hallazgo clave es la identificación de la insuficiencia en las acciones para la gestión integral del agua, lo que ha contribuido a la degradación ambiental y a la vulnerabilidad de las comunidades locales ante el cambio climático. A través de un análisis participativo realizado con grupos focales, el documento revela las principales problemáticas, incluyendo la ocupación indiscriminada del suelo, la alteración del régimen hidrológico, y la falta de gobernanza efectiva en el manejo de recursos hídricos. Se resalta que el proyecto tiene como objetivo empoderar a aproximadamente 1,150 personas mediante formación en restauración y monitoreo, buscando que al menos 250 de estas obtengan certificaciones de competencias laborales. Esta capacitación es fundamental para el desarrollo de un enfoque de restauración participativa, donde se integran comunidades étnicas y campesinas, promoviendo su participación en la recuperación de ecosistemas y cuerpos de agua en el área. El documento también establece indicadores de producto claros, como el número de áreas restauradas y los kilómetros de caños rehabilitados, que permiten evaluar el avance de las acciones implementadas. En cuanto a las metodologías, se emplean criterios técnicos y normativos para el desarrollo de planes de acción que guíen la restauración de ecosistemas. Se propone una planificación ecorregional detallada, ejecutada por el Instituto Alexander von Humboldt, que analiza la información biológica y socioeconómica para priorizar las áreas donde se deben establecer acciones de conservación. Esta planificación integra un enfoque de conectividad funcional de los ecosistemas, permitiendo el restablecimiento de servicios ecosistémicos como la regulación hídrica y la conservación de la biodiversidad. Las conclusiones del informe enfatizan la importancia de una articulación institucional más efectiva y la implementación de instrumentos técnicos para la planificación del recurso hídrico. Se recomienda intensificar la capacitación y el empoderamiento de las comunidades locales, garantizando que las acciones de restauración y rehabilitación de cuerpos de agua estén alineadas con las necesidades específicas del territorio. Además, el documento destaca la necesidad de desarrollar un sistema de monitoreo robusto que garantice la sostenibilidad de las intervenciones a largo plazo y proponga un enfoque integral que facilite la adaptación al cambio climático en la región de La Mojana.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 1. Población Mojana.xlsx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 10. Shapes localización.zip
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 12.  Hoja de Ruta Presupuesto MOJANA III Unicordoba-Actualización Caracterización.xlsx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 13. Mapa de localización del proyecto..pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 14. Formato cadena de valor.xlsx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 15. Matriz de análisis de riesgos.xlsx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 16. Organizaciones estructura de gobernanza.xlsx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 17. Proyecto Corpomojana.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 2. Metas problemática alteración de áreas estratégicas para la regulación hídrica..xlsx
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 5. Mapa de priorización de áreas de restauración..pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 6. Caños potenciales priorizados a rehabilitar..png
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 9. Áreas priorizadas restauración.pdf</t>
+  </si>
+  <si>
+    <t>El documento no solo presenta una estrategia clara para la recuperación ambiental, sino que también establece un modelo de gestión que prioriza la participación comunitaria y la colaboración institucional. Este enfoque no solo busca restaurar el equilibrio ecológico de La Mojana, sino también contribuir al desarrollo sostenible y la justicia ambiental en la región.</t>
+  </si>
+  <si>
+    <t>Gestión integral del agua, ordenamiento territorial sostenible, La Mojana, Antioquia, Bolívar, Córdoba, Sucre, restauración de ecosistemas, rehabilitación de caños, cambio climático, resiliencia climática, comunidades étnicas, comunidades campesinas, capacitación, certificación laboral, gobernanza del agua, planificación ecorregional, servicios ecosistémicos, regulación hídrica, biodiversidad, participación comunitaria, diagnóstico social, análisis espacial, mitigación de riesgos, adaptación, monitoreo participativo, acciones de conservación, desarrollo sostenible, degradación ambiental, recursos hídricos, restauración participativa, vulnerabilidad, instrumentos técnicos y normativos, sostenibilidad a largo plazo, cooperación internacional.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -182,11 +494,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +535,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,6 +1006,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -683,13 +1033,6 @@
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -739,7 +1082,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1027,22 +1370,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="55.28515625" customWidth="1"/>
     <col min="4" max="4" width="59.5703125" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="34" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
@@ -1051,17 +1394,17 @@
     <col min="18" max="18" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1107,291 +1450,624 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
+    <row r="2" spans="1:18">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
+    <row r="9" spans="1:18">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
+    <row r="10" spans="1:18">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5"/>
+    <row r="11" spans="1:18">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+    <row r="12" spans="1:18">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R17" s="1"/>
+    <row r="13" spans="1:18">
+      <c r="R13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1403,15 +2079,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1555,28 +2222,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>